--- a/ANIM/Unidades_por_Marca.xlsx
+++ b/ANIM/Unidades_por_Marca.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Motos\ANIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Motos\ANIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2A8FB-3F25-463F-9DD3-0B423E16202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FDDCE-497F-42F2-B37D-CC8B32EA0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{37CC31AF-3C6B-4D6D-822B-CE0F677D896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{37CC31AF-3C6B-4D6D-822B-CE0F677D896F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
     <sheet name="Marca" sheetId="1" r:id="rId2"/>
     <sheet name="obs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -196,7 +194,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
@@ -1874,7 +1887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C4EDE6D-7DDF-4226-8F89-03C8769A1246}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C4EDE6D-7DDF-4226-8F89-03C8769A1246}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:P33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -2075,7 +2088,7 @@
     <dataField name="Suma de Unidades vendidas" fld="3" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2094,6 +2107,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ED8829A-E1E4-4AC5-A3BB-21A52A6BC0FD}" name="Tabla1" displayName="Tabla1" ref="A1:D265" totalsRowShown="0">
   <autoFilter ref="A1:D265" xr:uid="{5ED8829A-E1E4-4AC5-A3BB-21A52A6BC0FD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D265">
+    <sortCondition descending="1" ref="A2:A265"/>
+    <sortCondition ref="B2:B265"/>
+    <sortCondition ref="C2:C265"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B9B3A403-D1F7-4AD5-B534-69F4BA86EE54}" name="Año"/>
     <tableColumn id="2" xr3:uid="{99F6395D-E9A2-4980-AEE9-4B13C27B50DE}" name="Mes"/>
@@ -2403,25 +2421,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC24CF7-646F-4346-8DF1-328E58016200}">
   <dimension ref="A4:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2020</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2735,7 +2753,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2877,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -3009,7 +3027,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3127,7 +3145,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -3161,7 +3179,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -3275,7 +3293,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3325,7 +3343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -3351,7 +3369,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3397,7 +3415,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -3431,7 +3449,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +3499,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3537,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -3564,14 +3582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C884C9E-8048-4B72-967C-BB1E890E1C72}">
   <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -3593,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -3607,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -3621,13 +3641,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -3635,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -3649,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -3663,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -3683,7 +3703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -3697,7 +3717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -3705,13 +3725,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -3719,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -3733,13 +3753,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3747,13 +3767,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -3775,13 +3795,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -3789,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -3803,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -3817,13 +3837,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -3831,13 +3851,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -3845,13 +3865,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -3865,7 +3885,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -3873,13 +3893,13 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -3887,13 +3907,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -3901,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -3915,13 +3935,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -3929,13 +3949,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -3943,13 +3963,13 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -3957,13 +3977,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -3971,13 +3991,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -3985,13 +4005,13 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -3999,13 +4019,13 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -4013,13 +4033,13 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -4027,13 +4047,13 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -4041,13 +4061,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -4055,13 +4075,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -4069,13 +4089,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -4083,13 +4103,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -4097,13 +4117,13 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -4111,13 +4131,13 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -4125,13 +4145,13 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -4139,13 +4159,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -4153,13 +4173,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -4167,13 +4187,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -4181,13 +4201,13 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -4201,7 +4221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -4209,13 +4229,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -4223,13 +4243,13 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -4237,13 +4257,13 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -4251,13 +4271,13 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -4265,13 +4285,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -4279,13 +4299,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -4293,13 +4313,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -4307,13 +4327,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -4321,13 +4341,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -4335,13 +4355,13 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -4349,13 +4369,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -4363,13 +4383,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -4377,13 +4397,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -4391,13 +4411,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -4405,13 +4425,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -4425,7 +4445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -4433,13 +4453,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -4447,13 +4467,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -4461,13 +4481,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -4475,13 +4495,13 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -4489,13 +4509,13 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D66">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -4503,13 +4523,13 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -4517,13 +4537,13 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -4531,13 +4551,13 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -4545,13 +4565,13 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -4559,13 +4579,13 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -4573,13 +4593,13 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -4587,13 +4607,13 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -4601,13 +4621,13 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -4615,13 +4635,13 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -4629,13 +4649,13 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -4643,13 +4663,13 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -4657,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -4677,7 +4697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -4685,13 +4705,13 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -4699,13 +4719,13 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -4713,13 +4733,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -4727,13 +4747,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -4741,13 +4761,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D84">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -4755,13 +4775,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -4769,13 +4789,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -4783,13 +4803,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -4797,13 +4817,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -4811,13 +4831,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -4825,13 +4845,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -4839,13 +4859,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -4853,13 +4873,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -4867,13 +4887,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -4881,13 +4901,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -4895,13 +4915,13 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -4909,13 +4929,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -4923,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D97">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -4937,13 +4957,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -4951,13 +4971,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -4965,13 +4985,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -4979,13 +4999,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -4993,13 +5013,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -5007,13 +5027,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -5021,13 +5041,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D104">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -5035,13 +5055,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -5049,13 +5069,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -5063,13 +5083,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -5077,13 +5097,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -5091,13 +5111,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -5105,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -5125,7 +5145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -5133,13 +5153,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -5147,13 +5167,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -5161,13 +5181,13 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -5175,13 +5195,13 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D115">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -5189,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -5203,13 +5223,13 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -5217,13 +5237,13 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -5231,13 +5251,13 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -5245,13 +5265,13 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -5259,13 +5279,13 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -5273,13 +5293,13 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -5287,13 +5307,13 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D123">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -5301,13 +5321,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -5315,13 +5335,13 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -5329,13 +5349,13 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -5343,13 +5363,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -5363,7 +5383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -5371,13 +5391,13 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D129">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -5385,13 +5405,13 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -5399,13 +5419,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D131">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -5413,13 +5433,13 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D132">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -5427,13 +5447,13 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -5441,13 +5461,13 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -5455,13 +5475,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -5469,13 +5489,13 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D136">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -5489,7 +5509,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -5497,13 +5517,13 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -5511,13 +5531,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D139">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -5525,13 +5545,13 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D140">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -5539,13 +5559,13 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D141">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -5553,13 +5573,13 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -5573,7 +5593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -5581,13 +5601,13 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -5595,13 +5615,13 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D145">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -5609,13 +5629,13 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -5623,13 +5643,13 @@
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D147">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -5637,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -5651,13 +5671,13 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D149">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -5665,13 +5685,13 @@
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -5679,13 +5699,13 @@
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -5693,13 +5713,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -5707,13 +5727,13 @@
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D153">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -5721,13 +5741,13 @@
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D154">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -5735,13 +5755,13 @@
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D155">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -5749,13 +5769,13 @@
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -5763,13 +5783,13 @@
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D157">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -5777,13 +5797,13 @@
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D158">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -5791,13 +5811,13 @@
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -5805,13 +5825,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -5819,13 +5839,13 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -5833,13 +5853,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -5847,13 +5867,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D163">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -5861,13 +5881,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D164">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -5875,13 +5895,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D165">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -5889,13 +5909,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D166">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -5903,13 +5923,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -5917,13 +5937,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D168">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -5931,13 +5951,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D169">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -5945,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D170">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -5959,13 +5979,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D171">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -5973,13 +5993,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D172">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -5987,13 +6007,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -6001,13 +6021,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -6015,13 +6035,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D175">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -6029,13 +6049,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D176">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -6043,13 +6063,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D177">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -6057,13 +6077,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D178">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -6071,13 +6091,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D179">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -6085,13 +6105,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -6099,13 +6119,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2020</v>
       </c>
@@ -6113,13 +6133,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -6127,13 +6147,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2020</v>
       </c>
@@ -6141,13 +6161,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2020</v>
       </c>
@@ -6155,13 +6175,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -6169,13 +6189,13 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D186">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2020</v>
       </c>
@@ -6183,13 +6203,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D187">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2020</v>
       </c>
@@ -6197,13 +6217,13 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D188">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -6211,13 +6231,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D189">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -6225,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D190">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -6239,13 +6259,13 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D191">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -6253,13 +6273,13 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -6267,13 +6287,13 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D193">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -6281,13 +6301,13 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D194">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -6295,13 +6315,13 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D195">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -6309,13 +6329,13 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D196">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -6323,13 +6343,13 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -6337,13 +6357,13 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D198">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -6351,13 +6371,13 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D199">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -6365,13 +6385,13 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D200">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2020</v>
       </c>
@@ -6379,13 +6399,13 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2020</v>
       </c>
@@ -6393,13 +6413,13 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D202">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2020</v>
       </c>
@@ -6407,13 +6427,13 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -6421,13 +6441,13 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D204">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2020</v>
       </c>
@@ -6435,13 +6455,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D205">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -6449,13 +6469,13 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2020</v>
       </c>
@@ -6463,13 +6483,13 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2020</v>
       </c>
@@ -6477,13 +6497,13 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2020</v>
       </c>
@@ -6491,13 +6511,13 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2020</v>
       </c>
@@ -6505,13 +6525,14 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D210">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <f>F210-H209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2020</v>
       </c>
@@ -6519,13 +6540,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D211">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2020</v>
       </c>
@@ -6533,14 +6554,13 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D212">
-        <f>F212-H213</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2020</v>
       </c>
@@ -6548,14 +6568,13 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213">
-        <f>F213-H212</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -6563,13 +6582,14 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D214">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <f>F214-H214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -6577,14 +6597,13 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D215">
-        <f>F215-H216</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -6592,14 +6611,14 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D216">
-        <f>F216-H215</f>
+        <f>F216-H217</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -6607,13 +6626,13 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D217">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -6621,13 +6640,13 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D218">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -6635,13 +6654,14 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D219">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <f>F219-H220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -6649,13 +6669,13 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D220">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -6663,13 +6683,13 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D221">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -6677,14 +6697,13 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D222">
-        <f>F222-H223</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -6692,14 +6711,14 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D223">
-        <f>F223-H222</f>
+        <f>F223-H224</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -6707,13 +6726,13 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D224">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -6721,14 +6740,14 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D225">
-        <f>F225-H226</f>
+        <f>F225-H224</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2020</v>
       </c>
@@ -6736,14 +6755,13 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D226">
-        <f>F226-H225</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2020</v>
       </c>
@@ -6751,14 +6769,14 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D227">
-        <f>F227-H227</f>
+        <f>F227-H228</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2020</v>
       </c>
@@ -6766,14 +6784,13 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D228">
-        <f>F228-H229</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2020</v>
       </c>
@@ -6781,14 +6798,14 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D229">
         <f>F229-H228</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2020</v>
       </c>
@@ -6796,13 +6813,14 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D230">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <f>F230-H229</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2020</v>
       </c>
@@ -6810,13 +6828,13 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2020</v>
       </c>
@@ -6824,13 +6842,14 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D232">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <f>F232-H231</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2020</v>
       </c>
@@ -6838,13 +6857,14 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D233">
+        <f>F233-H234</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2020</v>
       </c>
@@ -6852,13 +6872,13 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2020</v>
       </c>
@@ -6866,13 +6886,13 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D235">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2020</v>
       </c>
@@ -6880,13 +6900,13 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D236">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2020</v>
       </c>
@@ -6894,13 +6914,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D237">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2020</v>
       </c>
@@ -6908,13 +6928,13 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D238">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -6922,13 +6942,13 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -6936,13 +6956,13 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D240">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -6950,13 +6970,13 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D241">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -6964,13 +6984,13 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D242">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -6978,13 +6998,13 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D243">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -6992,13 +7012,13 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D244">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -7006,13 +7026,13 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D245">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -7020,13 +7040,13 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D246">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -7034,13 +7054,13 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D247">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -7048,13 +7068,13 @@
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D248">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -7062,13 +7082,13 @@
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D249">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -7076,13 +7096,13 @@
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D250">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2020</v>
       </c>
@@ -7090,13 +7110,13 @@
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D251">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2020</v>
       </c>
@@ -7104,13 +7124,13 @@
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D252">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2020</v>
       </c>
@@ -7118,13 +7138,13 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D253">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2020</v>
       </c>
@@ -7132,13 +7152,13 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D254">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2020</v>
       </c>
@@ -7146,13 +7166,13 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D255">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2020</v>
       </c>
@@ -7160,13 +7180,13 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D256">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2020</v>
       </c>
@@ -7174,13 +7194,13 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D257">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2020</v>
       </c>
@@ -7188,13 +7208,13 @@
         <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D258">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2020</v>
       </c>
@@ -7202,13 +7222,13 @@
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D259">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2020</v>
       </c>
@@ -7216,13 +7236,13 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D260">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2020</v>
       </c>
@@ -7230,13 +7250,13 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2020</v>
       </c>
@@ -7244,13 +7264,13 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D262">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2020</v>
       </c>
@@ -7258,13 +7278,13 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D263">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -7272,13 +7292,13 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D264">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -7286,10 +7306,10 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D265">
-        <v>23</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -7308,9 +7328,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
